--- a/RawData/sugar_yields_from_dilute_oxalic_acid_pretreatment_of_maple_wood.xlsx
+++ b/RawData/sugar_yields_from_dilute_oxalic_acid_pretreatment_of_maple_wood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose/HemicelluloseMachineLearning/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A467F27D-9E9A-BD4F-BE3E-1F41940BE9C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873CD008-AB30-434D-A98C-2B0164042DDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,6 +153,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -176,14 +183,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1660,36 +1670,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="2" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1764,13 +1774,13 @@
       <c r="X2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A47" si="0">H3+I3</f>
+        <f t="shared" ref="A3:A53" si="0">H3+I3</f>
         <v>4.9380880121396</v>
       </c>
       <c r="B3">
@@ -1798,15 +1808,16 @@
         <v>3.8</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J47" si="1">(B3-25)/I3</f>
+        <f t="shared" ref="J3:J53" si="1">(B3-25)/I3</f>
         <v>46.05263157894737</v>
       </c>
       <c r="N3">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="1"/>
       <c r="T3">
-        <v>0.116959064327484</v>
+        <v>3.9575394321766599</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1848,9 +1859,11 @@
       <c r="N4">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="1"/>
+      <c r="S4" s="2"/>
       <c r="T4">
-        <v>0.54580896686159797</v>
+        <v>16.621665615141961</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1892,9 +1905,11 @@
       <c r="N5">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q5" s="7"/>
       <c r="R5" s="1"/>
+      <c r="S5" s="2"/>
       <c r="T5">
-        <v>1.32553606237817</v>
+        <v>18.699373817034694</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1936,9 +1951,11 @@
       <c r="N6">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q6" s="7"/>
       <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
       <c r="T6">
-        <v>2.57309941520468</v>
+        <v>14.510977917981071</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1980,9 +1997,11 @@
       <c r="N7">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
       <c r="T7">
-        <v>2.6705653021442499</v>
+        <v>8.0799763406940066</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2024,9 +2043,11 @@
       <c r="N8">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q8" s="7"/>
       <c r="R8" s="1"/>
+      <c r="S8" s="2"/>
       <c r="T8">
-        <v>2.1637426900584797</v>
+        <v>4.6501088328075699</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2068,9 +2089,11 @@
       <c r="N9">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q9" s="7"/>
       <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
       <c r="T9">
-        <v>7.7972709551657707E-2</v>
+        <v>1.6159952681388017</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2112,9 +2135,11 @@
       <c r="N10">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q10" s="7"/>
       <c r="R10" s="1"/>
+      <c r="S10" s="2"/>
       <c r="T10">
-        <v>0.25341130604288498</v>
+        <v>11.344946372239759</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2156,9 +2181,11 @@
       <c r="N11">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
       <c r="T11">
-        <v>0.643274853801169</v>
+        <v>15.434403785488968</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2200,9 +2227,11 @@
       <c r="N12">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q12" s="7"/>
       <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
       <c r="T12">
-        <v>0.87719298245614097</v>
+        <v>15.698239747634068</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2244,9 +2273,11 @@
       <c r="N13">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
       <c r="T13">
-        <v>1.364522417154</v>
+        <v>15.731219242902206</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2288,9 +2319,11 @@
       <c r="N14">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q14" s="7"/>
       <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
       <c r="T14">
-        <v>1.69590643274854</v>
+        <v>15.665260252365931</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2299,7 +2332,7 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>5.1041666666666696</v>
+        <v>4.9350159837106</v>
       </c>
       <c r="B15">
         <v>160</v>
@@ -2320,8 +2353,8 @@
       <c r="G15">
         <v>10</v>
       </c>
-      <c r="H15" s="1">
-        <v>2.6041666666666701</v>
+      <c r="H15" s="7">
+        <v>2.4350159837106</v>
       </c>
       <c r="I15">
         <v>2.5</v>
@@ -2333,7 +2366,9 @@
       <c r="N15">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="1"/>
+      <c r="S15" s="2"/>
       <c r="T15">
         <v>6.3225517697500502</v>
       </c>
@@ -2344,7 +2379,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>10.10416666666667</v>
+        <v>10.07892119020357</v>
       </c>
       <c r="B16">
         <v>160</v>
@@ -2365,8 +2400,8 @@
       <c r="G16">
         <v>10</v>
       </c>
-      <c r="H16" s="1">
-        <v>7.6041666666666696</v>
+      <c r="H16" s="7">
+        <v>7.5789211902035696</v>
       </c>
       <c r="I16">
         <v>2.5</v>
@@ -2378,7 +2413,9 @@
       <c r="N16">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="1"/>
+      <c r="S16" s="2"/>
       <c r="T16">
         <v>7.1668320105820102</v>
       </c>
@@ -2389,7 +2426,7 @@
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>15.0673932303675</v>
       </c>
       <c r="B17">
         <v>160</v>
@@ -2410,8 +2447,8 @@
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="H17" s="1">
-        <v>12.5</v>
+      <c r="H17" s="7">
+        <v>12.5673932303675</v>
       </c>
       <c r="I17">
         <v>2.5</v>
@@ -2423,7 +2460,9 @@
       <c r="N17">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="1"/>
+      <c r="S17" s="2"/>
       <c r="T17">
         <v>6.7467159277504098</v>
       </c>
@@ -2434,7 +2473,7 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>22.5</v>
+        <v>22.6940324026341</v>
       </c>
       <c r="B18">
         <v>160</v>
@@ -2455,8 +2494,8 @@
       <c r="G18">
         <v>10</v>
       </c>
-      <c r="H18" s="1">
-        <v>20</v>
+      <c r="H18" s="7">
+        <v>20.1940324026341</v>
       </c>
       <c r="I18">
         <v>2.5</v>
@@ -2468,7 +2507,9 @@
       <c r="N18">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="1"/>
+      <c r="S18" s="2"/>
       <c r="T18">
         <v>6.3656267104542996</v>
       </c>
@@ -2479,7 +2520,7 @@
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>27.6041666666667</v>
+        <v>27.677841447808099</v>
       </c>
       <c r="B19">
         <v>160</v>
@@ -2500,8 +2541,8 @@
       <c r="G19">
         <v>10</v>
       </c>
-      <c r="H19" s="1">
-        <v>25.1041666666667</v>
+      <c r="H19" s="7">
+        <v>25.177841447808099</v>
       </c>
       <c r="I19">
         <v>2.5</v>
@@ -2513,7 +2554,9 @@
       <c r="N19">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q19" s="7"/>
       <c r="R19" s="1"/>
+      <c r="S19" s="2"/>
       <c r="T19">
         <v>5.4091691753329698</v>
       </c>
@@ -2524,7 +2567,7 @@
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>32.523004108616703</v>
       </c>
       <c r="B20">
         <v>160</v>
@@ -2545,8 +2588,8 @@
       <c r="G20">
         <v>10</v>
       </c>
-      <c r="H20" s="1">
-        <v>30</v>
+      <c r="H20" s="7">
+        <v>30.0230041086167</v>
       </c>
       <c r="I20">
         <v>2.5</v>
@@ -2558,7 +2601,9 @@
       <c r="N20">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q20" s="7"/>
       <c r="R20" s="1"/>
+      <c r="S20" s="2"/>
       <c r="T20">
         <v>4.9507389162561601</v>
       </c>
@@ -2569,7 +2614,7 @@
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>37.6041666666667</v>
+        <v>37.584063437456301</v>
       </c>
       <c r="B21">
         <v>160</v>
@@ -2590,8 +2635,8 @@
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="H21" s="1">
-        <v>35.1041666666667</v>
+      <c r="H21" s="7">
+        <v>35.084063437456301</v>
       </c>
       <c r="I21">
         <v>2.5</v>
@@ -2603,7 +2648,9 @@
       <c r="N21">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q21" s="7"/>
       <c r="R21" s="1"/>
+      <c r="S21" s="2"/>
       <c r="T21">
         <v>4.5881511129356003</v>
       </c>
@@ -2614,7 +2661,7 @@
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>42.501968820106804</v>
       </c>
       <c r="B22">
         <v>160</v>
@@ -2635,8 +2682,8 @@
       <c r="G22">
         <v>10</v>
       </c>
-      <c r="H22" s="1">
-        <v>40</v>
+      <c r="H22" s="7">
+        <v>40.001968820106804</v>
       </c>
       <c r="I22">
         <v>2.5</v>
@@ -2648,7 +2695,9 @@
       <c r="N22">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q22" s="7"/>
       <c r="R22" s="1"/>
+      <c r="S22" s="2"/>
       <c r="T22">
         <v>4.1871921182265996</v>
       </c>
@@ -2659,7 +2708,7 @@
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>62.6041666666667</v>
+        <v>62.529998601101497</v>
       </c>
       <c r="B23">
         <v>160</v>
@@ -2680,8 +2729,8 @@
       <c r="G23">
         <v>10</v>
       </c>
-      <c r="H23" s="1">
-        <v>60.1041666666667</v>
+      <c r="H23" s="7">
+        <v>60.029998601101497</v>
       </c>
       <c r="I23">
         <v>2.5</v>
@@ -2693,7 +2742,9 @@
       <c r="N23">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q23" s="7"/>
       <c r="R23" s="1"/>
+      <c r="S23" s="2"/>
       <c r="T23">
         <v>2.5451845010034697</v>
       </c>
@@ -2704,7 +2755,7 @@
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>16.6875</v>
+        <v>16.6839266562699</v>
       </c>
       <c r="B24">
         <v>140</v>
@@ -2725,8 +2776,8 @@
       <c r="G24">
         <v>10</v>
       </c>
-      <c r="H24" s="1">
-        <v>14.6875</v>
+      <c r="H24" s="7">
+        <v>14.6839266562699</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -2738,7 +2789,9 @@
       <c r="N24">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q24" s="7"/>
       <c r="R24" s="1"/>
+      <c r="S24" s="2"/>
       <c r="T24">
         <v>3.8929084564860403</v>
       </c>
@@ -2749,7 +2802,7 @@
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>26.5833333333333</v>
+        <v>26.546471926179599</v>
       </c>
       <c r="B25">
         <v>140</v>
@@ -2770,8 +2823,8 @@
       <c r="G25">
         <v>10</v>
       </c>
-      <c r="H25" s="1">
-        <v>24.5833333333333</v>
+      <c r="H25" s="7">
+        <v>24.546471926179599</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -2783,7 +2836,9 @@
       <c r="N25">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="1"/>
+      <c r="S25" s="2"/>
       <c r="T25">
         <v>4.71937146506112</v>
       </c>
@@ -2794,7 +2849,7 @@
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>33.3541666666667</v>
+        <v>33.262739043257099</v>
       </c>
       <c r="B26">
         <v>140</v>
@@ -2815,8 +2870,8 @@
       <c r="G26">
         <v>10</v>
       </c>
-      <c r="H26" s="1">
-        <v>31.3541666666667</v>
+      <c r="H26" s="7">
+        <v>31.262739043257099</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2828,7 +2883,9 @@
       <c r="N26">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q26" s="7"/>
       <c r="R26" s="1"/>
+      <c r="S26" s="2"/>
       <c r="T26">
         <v>5.3725654533844196</v>
       </c>
@@ -2839,7 +2896,7 @@
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>41.900004662995002</v>
       </c>
       <c r="B27">
         <v>140</v>
@@ -2860,8 +2917,8 @@
       <c r="G27">
         <v>10</v>
       </c>
-      <c r="H27" s="1">
-        <v>40</v>
+      <c r="H27" s="7">
+        <v>39.900004662995002</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2873,7 +2930,9 @@
       <c r="N27">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="1"/>
+      <c r="S27" s="2"/>
       <c r="T27">
         <v>5.9113300492610801</v>
       </c>
@@ -2884,7 +2943,7 @@
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>53.0416666666667</v>
+        <v>53.108134853815102</v>
       </c>
       <c r="B28">
         <v>140</v>
@@ -2905,8 +2964,8 @@
       <c r="G28">
         <v>10</v>
       </c>
-      <c r="H28" s="1">
-        <v>51.0416666666667</v>
+      <c r="H28" s="7">
+        <v>51.108134853815102</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -2918,7 +2977,9 @@
       <c r="N28">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q28" s="7"/>
       <c r="R28" s="1"/>
+      <c r="S28" s="2"/>
       <c r="T28">
         <v>6.52737867177522</v>
       </c>
@@ -2929,7 +2990,7 @@
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>65.0208333333333</v>
+        <v>65.018512090109795</v>
       </c>
       <c r="B29">
         <v>140</v>
@@ -2950,8 +3011,8 @@
       <c r="G29">
         <v>10</v>
       </c>
-      <c r="H29" s="1">
-        <v>63.0208333333333</v>
+      <c r="H29" s="7">
+        <v>63.018512090109802</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2963,7 +3024,9 @@
       <c r="N29">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q29" s="7"/>
       <c r="R29" s="1"/>
+      <c r="S29" s="2"/>
       <c r="T29">
         <v>6.2816148969166203</v>
       </c>
@@ -2974,10 +3037,10 @@
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>4.9145055871811101</v>
-      </c>
-      <c r="B30">
-        <v>160</v>
+        <v>5.0538461538461501</v>
+      </c>
+      <c r="B30" s="2">
+        <v>200</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -2995,22 +3058,24 @@
       <c r="G30">
         <v>10</v>
       </c>
-      <c r="H30" s="1">
-        <v>2.4145055871811101</v>
+      <c r="H30" s="7">
+        <v>2.5538461538461501</v>
       </c>
       <c r="I30">
         <v>2.5</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="N30">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q30" s="7"/>
       <c r="R30" s="1"/>
+      <c r="S30" s="2"/>
       <c r="T30">
-        <v>1.6318785578747601</v>
+        <v>3.9617511760104249</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3019,10 +3084,10 @@
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>9.9865696816360998</v>
-      </c>
-      <c r="B31">
-        <v>160</v>
+        <v>10.03846153846154</v>
+      </c>
+      <c r="B31" s="2">
+        <v>200</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -3040,22 +3105,24 @@
       <c r="G31">
         <v>10</v>
       </c>
-      <c r="H31" s="1">
-        <v>7.4865696816360998</v>
+      <c r="H31" s="7">
+        <v>7.5384615384615401</v>
       </c>
       <c r="I31">
         <v>2.5</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="N31">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q31" s="7"/>
       <c r="R31" s="1"/>
+      <c r="S31" s="2"/>
       <c r="T31">
-        <v>2.2390891840607199</v>
+        <v>5.3881914466174203</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3064,10 +3131,10 @@
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>14.973286949188299</v>
-      </c>
-      <c r="B32">
-        <v>160</v>
+        <v>15.0230769230769</v>
+      </c>
+      <c r="B32" s="2">
+        <v>200</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -3085,22 +3152,24 @@
       <c r="G32">
         <v>10</v>
       </c>
-      <c r="H32" s="1">
-        <v>12.473286949188299</v>
+      <c r="H32" s="7">
+        <v>12.5230769230769</v>
       </c>
       <c r="I32">
         <v>2.5</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="N32">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q32" s="7"/>
       <c r="R32" s="1"/>
+      <c r="S32" s="2"/>
       <c r="T32">
-        <v>3.2447817836812098</v>
+        <v>7.751795935680132</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3109,7 +3178,7 @@
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>20.0468690702087</v>
+        <v>20.007692307692299</v>
       </c>
       <c r="B33">
         <v>160</v>
@@ -3130,8 +3199,8 @@
       <c r="G33">
         <v>10</v>
       </c>
-      <c r="H33" s="1">
-        <v>17.5468690702087</v>
+      <c r="H33" s="7">
+        <v>17.507692307692299</v>
       </c>
       <c r="I33">
         <v>2.5</v>
@@ -3143,9 +3212,11 @@
       <c r="N33">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q33" s="7"/>
       <c r="R33" s="1"/>
+      <c r="S33" s="2"/>
       <c r="T33">
-        <v>4.0227703984819696</v>
+        <v>10.501291573518763</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3154,7 +3225,7 @@
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>25.038309087075699</v>
+        <v>24.930769230769201</v>
       </c>
       <c r="B34">
         <v>160</v>
@@ -3175,8 +3246,8 @@
       <c r="G34">
         <v>10</v>
       </c>
-      <c r="H34" s="1">
-        <v>22.538309087075699</v>
+      <c r="H34" s="7">
+        <v>22.430769230769201</v>
       </c>
       <c r="I34">
         <v>2.5</v>
@@ -3188,9 +3259,11 @@
       <c r="N34">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q34" s="7"/>
       <c r="R34" s="1"/>
+      <c r="S34" s="2"/>
       <c r="T34">
-        <v>5.5597722960151801</v>
+        <v>16.475819480225979</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3199,7 +3272,7 @@
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>30.125722116803701</v>
+        <v>29.9769230769231</v>
       </c>
       <c r="B35">
         <v>160</v>
@@ -3220,8 +3293,8 @@
       <c r="G35">
         <v>10</v>
       </c>
-      <c r="H35" s="1">
-        <v>27.625722116803701</v>
+      <c r="H35" s="7">
+        <v>27.4769230769231</v>
       </c>
       <c r="I35">
         <v>2.5</v>
@@ -3233,9 +3306,11 @@
       <c r="N35">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q35" s="7"/>
       <c r="R35" s="1"/>
+      <c r="S35" s="2"/>
       <c r="T35">
-        <v>7.8937381404174598</v>
+        <v>17.598974751267559</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3244,7 +3319,7 @@
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>35.095235083280599</v>
+        <v>34.961538461538503</v>
       </c>
       <c r="B36">
         <v>160</v>
@@ -3265,8 +3340,8 @@
       <c r="G36">
         <v>10</v>
       </c>
-      <c r="H36" s="1">
-        <v>32.595235083280599</v>
+      <c r="H36" s="7">
+        <v>32.461538461538503</v>
       </c>
       <c r="I36">
         <v>2.5</v>
@@ -3278,9 +3353,11 @@
       <c r="N36">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q36" s="7"/>
       <c r="R36" s="1"/>
+      <c r="S36" s="2"/>
       <c r="T36">
-        <v>6.9639468690702104</v>
+        <v>14.918430652759659</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3289,7 +3366,7 @@
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>40.065254058612702</v>
+        <v>40.007692307692302</v>
       </c>
       <c r="B37">
         <v>160</v>
@@ -3310,8 +3387,8 @@
       <c r="G37">
         <v>10</v>
       </c>
-      <c r="H37" s="1">
-        <v>37.565254058612702</v>
+      <c r="H37" s="7">
+        <v>37.507692307692302</v>
       </c>
       <c r="I37">
         <v>2.5</v>
@@ -3323,9 +3400,11 @@
       <c r="N37">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q37" s="7"/>
       <c r="R37" s="1"/>
+      <c r="S37" s="2"/>
       <c r="T37">
-        <v>6.0910815939278899</v>
+        <v>12.844202119658116</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3334,7 +3413,7 @@
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>60.145203457727199</v>
+        <v>59.946153846153798</v>
       </c>
       <c r="B38">
         <v>160</v>
@@ -3355,8 +3434,8 @@
       <c r="G38">
         <v>10</v>
       </c>
-      <c r="H38" s="1">
-        <v>57.645203457727199</v>
+      <c r="H38" s="7">
+        <v>57.446153846153798</v>
       </c>
       <c r="I38">
         <v>2.5</v>
@@ -3368,152 +3447,160 @@
       <c r="N38">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q38" s="7"/>
       <c r="R38" s="1"/>
+      <c r="S38" s="2"/>
       <c r="T38">
-        <v>5.0853889943074</v>
+        <v>10.694321959148191</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>4.95614035087719</v>
-      </c>
-      <c r="B39">
+        <v>4.9923076923076906</v>
+      </c>
+      <c r="B39" s="2">
         <v>160</v>
       </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>0.11107408641563923</v>
-      </c>
-      <c r="E39">
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <f>20*2/98.079</f>
+        <v>0.40783450075959177</v>
+      </c>
+      <c r="E39" s="2">
         <v>0.5</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39" s="1">
-        <v>2.45614035087719</v>
-      </c>
-      <c r="I39">
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2.4923076923076901</v>
+      </c>
+      <c r="I39" s="2">
         <v>2.5</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="1"/>
+      <c r="J39" s="2">
+        <f t="shared" ref="J39:J41" si="4">(B39-25)/I39</f>
         <v>54</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="2">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q39" s="7"/>
       <c r="R39" s="1"/>
-      <c r="T39">
-        <v>0.20637898686679298</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T39" s="2">
+        <v>13.002714330001444</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>9.95614035087719</v>
-      </c>
-      <c r="B40">
+        <v>9.9769230769230788</v>
+      </c>
+      <c r="B40" s="2">
         <v>160</v>
       </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>0.11107408641563923</v>
-      </c>
-      <c r="E40">
+      <c r="C40" s="2">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <f>20*2/98.079</f>
+        <v>0.40783450075959177</v>
+      </c>
+      <c r="E40" s="2">
         <v>0.5</v>
       </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-      <c r="H40" s="1">
-        <v>7.45614035087719</v>
-      </c>
-      <c r="I40">
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>10</v>
+      </c>
+      <c r="H40" s="7">
+        <v>7.4769230769230797</v>
+      </c>
+      <c r="I40" s="2">
         <v>2.5</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="1"/>
+      <c r="J40" s="2">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="2">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q40" s="7"/>
       <c r="R40" s="1"/>
-      <c r="T40">
-        <v>1.8949343339587201</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T40" s="2">
+        <v>15.945155542228017</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>14.956140350877201</v>
-      </c>
-      <c r="B41">
+        <v>15.0230769230769</v>
+      </c>
+      <c r="B41" s="2">
         <v>160</v>
       </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>0.11107408641563923</v>
-      </c>
-      <c r="E41">
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <f>20*2/98.079</f>
+        <v>0.40783450075959177</v>
+      </c>
+      <c r="E41" s="2">
         <v>0.5</v>
       </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="H41" s="1">
-        <v>12.456140350877201</v>
-      </c>
-      <c r="I41">
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10</v>
+      </c>
+      <c r="H41" s="7">
+        <v>12.5230769230769</v>
+      </c>
+      <c r="I41" s="2">
         <v>2.5</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="1"/>
+      <c r="J41" s="2">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q41" s="7"/>
       <c r="R41" s="1"/>
-      <c r="T41">
-        <v>2.7579737335834897</v>
-      </c>
-      <c r="Y41">
+      <c r="T41" s="2">
+        <v>15.359364297262061</v>
+      </c>
+      <c r="Y41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>19.956140350877199</v>
-      </c>
-      <c r="B42">
+        <v>4.9095419937298104</v>
+      </c>
+      <c r="B42" s="2">
         <v>160</v>
       </c>
       <c r="C42">
@@ -3531,8 +3618,8 @@
       <c r="G42">
         <v>10</v>
       </c>
-      <c r="H42" s="1">
-        <v>17.456140350877199</v>
+      <c r="H42" s="7">
+        <v>2.4095419937298099</v>
       </c>
       <c r="I42">
         <v>2.5</v>
@@ -3544,9 +3631,11 @@
       <c r="N42">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q42" s="6"/>
       <c r="R42" s="1"/>
+      <c r="S42" s="2"/>
       <c r="T42">
-        <v>3.11444652908067</v>
+        <v>1.476439676590529</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3555,7 +3644,7 @@
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
-        <v>24.956140350877199</v>
+        <v>9.8899771350446599</v>
       </c>
       <c r="B43">
         <v>160</v>
@@ -3575,8 +3664,8 @@
       <c r="G43">
         <v>10</v>
       </c>
-      <c r="H43" s="1">
-        <v>22.456140350877199</v>
+      <c r="H43" s="7">
+        <v>7.3899771350446599</v>
       </c>
       <c r="I43">
         <v>2.5</v>
@@ -3588,9 +3677,11 @@
       <c r="N43">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q43" s="7"/>
       <c r="R43" s="1"/>
+      <c r="S43" s="2"/>
       <c r="T43">
-        <v>3.1707317073170698</v>
+        <v>7.4406896630365704</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3599,7 +3690,7 @@
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
-        <v>29.956140350877199</v>
+        <v>14.8417721518987</v>
       </c>
       <c r="B44">
         <v>160</v>
@@ -3619,8 +3710,8 @@
       <c r="G44">
         <v>10</v>
       </c>
-      <c r="H44" s="1">
-        <v>27.456140350877199</v>
+      <c r="H44" s="7">
+        <v>12.3417721518987</v>
       </c>
       <c r="I44">
         <v>2.5</v>
@@ -3632,9 +3723,11 @@
       <c r="N44">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q44" s="7"/>
       <c r="R44" s="1"/>
+      <c r="S44" s="2"/>
       <c r="T44">
-        <v>3.4146341463414602</v>
+        <v>9.4612325513282851</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3643,7 +3736,7 @@
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
-        <v>34.956140350877199</v>
+        <v>19.817492869433998</v>
       </c>
       <c r="B45">
         <v>160</v>
@@ -3663,8 +3756,8 @@
       <c r="G45">
         <v>10</v>
       </c>
-      <c r="H45" s="1">
-        <v>32.456140350877199</v>
+      <c r="H45" s="7">
+        <v>17.317492869433998</v>
       </c>
       <c r="I45">
         <v>2.5</v>
@@ -3676,9 +3769,11 @@
       <c r="N45">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q45" s="7"/>
       <c r="R45" s="1"/>
+      <c r="S45" s="2"/>
       <c r="T45">
-        <v>4.2964352720450298</v>
+        <v>15.980946389929992</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3687,7 +3782,7 @@
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
-        <v>39.956140350877199</v>
+        <v>24.780602503358999</v>
       </c>
       <c r="B46">
         <v>160</v>
@@ -3707,8 +3802,8 @@
       <c r="G46">
         <v>10</v>
       </c>
-      <c r="H46" s="1">
-        <v>37.456140350877199</v>
+      <c r="H46" s="7">
+        <v>22.280602503358999</v>
       </c>
       <c r="I46">
         <v>2.5</v>
@@ -3720,9 +3815,11 @@
       <c r="N46">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q46" s="7"/>
       <c r="R46" s="1"/>
+      <c r="S46" s="2"/>
       <c r="T46">
-        <v>4.2401500938086301</v>
+        <v>16.668376033048101</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3731,7 +3828,7 @@
     <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
-        <v>59.956140350877199</v>
+        <v>29.804881785823699</v>
       </c>
       <c r="B47">
         <v>160</v>
@@ -3751,8 +3848,8 @@
       <c r="G47">
         <v>10</v>
       </c>
-      <c r="H47" s="1">
-        <v>57.456140350877199</v>
+      <c r="H47" s="7">
+        <v>27.304881785823699</v>
       </c>
       <c r="I47">
         <v>2.5</v>
@@ -3764,31 +3861,303 @@
       <c r="N47">
         <v>20.908999999999999</v>
       </c>
+      <c r="Q47" s="7"/>
       <c r="R47" s="1"/>
+      <c r="S47" s="2"/>
       <c r="T47">
-        <v>3.3771106941838704</v>
+        <v>17.466812194446415</v>
       </c>
       <c r="Y47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>34.7729415647173</v>
+      </c>
+      <c r="B48">
+        <v>160</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>0.11107408641563923</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48" s="7">
+        <v>32.2729415647173</v>
+      </c>
+      <c r="I48">
+        <v>2.5</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="N48">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="2"/>
+      <c r="T48">
+        <v>17.57100479280108</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>39.902941800438398</v>
+      </c>
+      <c r="B49">
+        <v>160</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>0.11107408641563923</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49" s="7">
+        <v>37.402941800438398</v>
+      </c>
+      <c r="I49">
+        <v>2.5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="N49">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="2"/>
+      <c r="T49">
+        <v>13.231314069608471</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>59.872180185276903</v>
+      </c>
+      <c r="B50">
+        <v>160</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>0.11107408641563923</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50" s="7">
+        <v>57.372180185276903</v>
+      </c>
+      <c r="I50">
+        <v>2.5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="N50">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="2"/>
+      <c r="T50">
+        <v>9.5375657049242175</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1999952855762199</v>
+      </c>
+      <c r="B51" s="2">
+        <v>200</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <f>4*D50</f>
+        <v>0.44429634566255694</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+      <c r="G51" s="2">
+        <v>10</v>
+      </c>
+      <c r="H51" s="7">
+        <v>2.3999952855762201</v>
+      </c>
+      <c r="I51" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>46.05263157894737</v>
+      </c>
+      <c r="N51" s="2">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="S51" s="2"/>
+      <c r="T51">
+        <v>9.9194039772057589</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>11.15862621691063</v>
+      </c>
+      <c r="B52" s="2">
+        <v>200</v>
+      </c>
+      <c r="C52" s="2">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52:D53" si="5">4*D51</f>
+        <v>1.7771853826502277</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2">
+        <v>10</v>
+      </c>
+      <c r="H52" s="7">
+        <v>7.35862621691063</v>
+      </c>
+      <c r="I52" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>46.05263157894737</v>
+      </c>
+      <c r="N52" s="2">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="S52" s="2"/>
+      <c r="T52">
+        <v>11.134524279871776</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>16.0953350776701</v>
+      </c>
+      <c r="B53" s="2">
+        <v>200</v>
+      </c>
+      <c r="C53" s="2">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="5"/>
+        <v>7.108741530600911</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>10</v>
+      </c>
+      <c r="H53" s="7">
+        <v>12.295335077670099</v>
+      </c>
+      <c r="I53" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>46.05263157894737</v>
+      </c>
+      <c r="N53" s="2">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="S53" s="2"/>
+      <c r="T53">
+        <v>14.932551495061647</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4725,6 +5094,9 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
